--- a/artfynd/A 58174-2022 artfynd.xlsx
+++ b/artfynd/A 58174-2022 artfynd.xlsx
@@ -3037,7 +3037,7 @@
         <v>130845229</v>
       </c>
       <c r="B22" t="n">
-        <v>56452</v>
+        <v>56456</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
